--- a/Manual/Gamepad.xlsx
+++ b/Manual/Gamepad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Emulators\WinUAE\Hard\Amiga_HD\Citadel\CODE\Amiga-Citadel-13\Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92002C8E-1A39-497D-9A82-9D1E866FC6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2392A2E1-3A7F-42C8-B6A0-253B52F9D59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="-12204" windowWidth="19968" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1332" yWindow="-11832" windowWidth="19968" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,16 +69,7 @@
     <t>Fire weapons, insert keycards</t>
   </si>
   <si>
-    <t>W/S</t>
-  </si>
-  <si>
     <t>A/D</t>
-  </si>
-  <si>
-    <t>Q/E</t>
-  </si>
-  <si>
-    <t>SHIFT</t>
   </si>
   <si>
     <t>SPACE</t>
@@ -99,13 +90,22 @@
   <si>
     <t>Single press: show map
 Double press: quit to main game menu</t>
+  </si>
+  <si>
+    <t>Left/Right arrows</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Up/Down arrows</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,13 +170,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,14 +461,14 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -481,8 +489,8 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -493,7 +501,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -503,8 +511,8 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -514,8 +522,8 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -523,10 +531,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -534,10 +542,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -545,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
